--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/2_GBA/1_Admin/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/2_GBA/1_Admin/Mark Input Sheet ANL 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\2_GBA\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71FF8A-E0D7-4DE3-906D-001A8B24CD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB09206B-16A3-4F9F-BFBD-AE5638A22703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4508,19 +4508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0712429-E1BC-4170-A513-E9D2DB799554}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="20.28515625" style="21" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5703125" style="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="14.7109375" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="14.28515625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="26" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="21" bestFit="1" customWidth="1"/>

--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/2_GBA/1_Admin/Mark Input Sheet ANL 2020.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/2_GBA/1_Admin/Mark Input Sheet ANL 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\2_GBA\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB09206B-16A3-4F9F-BFBD-AE5638A22703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8ECAD-EB12-475C-8BEA-C88FB339372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="21600" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>Mark</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>1c regraded</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>0.20512820512820512</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20512820512820512</c:v>
@@ -987,7 +990,7 @@
                   <c:v>0.17948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.10256410256410256</c:v>
@@ -3062,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3134,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>69.84615384615384</v>
+        <v>71.897435897435898</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3147,7 +3150,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>6.6035814108249422</v>
+        <v>6.3195389230330781</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,8 +3158,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <f>Student_Names_Sorted!H7</f>
-        <v>60</v>
+        <f>Student_Names_Sorted!J7</f>
+        <v>80</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3169,8 +3172,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <f>Student_Names_Sorted!H8</f>
-        <v>60</v>
+        <f>Student_Names_Sorted!J8</f>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3193,8 +3196,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <f>Student_Names_Sorted!H9</f>
-        <v>60</v>
+        <f>Student_Names_Sorted!J9</f>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3218,8 +3221,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <f>Student_Names_Sorted!H10</f>
-        <v>60</v>
+        <f>Student_Names_Sorted!J10</f>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3235,7 +3238,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>0.10256410256410256</v>
+        <v>0.20512820512820512</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3335,7 +3338,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>0.10256410256410256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4506,21 +4509,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0712429-E1BC-4170-A513-E9D2DB799554}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="20.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="10.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="14.7109375" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="14.28515625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="14.7109375" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="21" bestFit="1" customWidth="1"/>
@@ -4560,7 +4563,7 @@
     <col min="45" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
@@ -4585,8 +4588,11 @@
       <c r="H1" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -4605,7 +4611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>44</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>46</v>
       </c>
@@ -4659,7 +4665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>48</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>52</v>
       </c>
@@ -4736,11 +4742,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:G7)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="21">
+        <v>22</v>
+      </c>
+      <c r="J7" s="21">
+        <f>SUM(E7,F7,I7)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>54</v>
       </c>
@@ -4766,8 +4779,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="21">
+        <v>22</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" ref="J8:J10" si="1">SUM(E8,F8,I8)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>56</v>
       </c>
@@ -4793,8 +4813,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="21">
+        <v>22</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>86</v>
       </c>
@@ -4820,8 +4847,15 @@
         <f>SUM(E10:G10)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="21">
+        <v>22</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>60</v>
       </c>
@@ -4848,7 +4882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>62</v>
       </c>
@@ -4875,7 +4909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>64</v>
       </c>
@@ -4902,7 +4936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>66</v>
       </c>
@@ -4929,7 +4963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>68</v>
       </c>
@@ -4956,7 +4990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>72</v>
       </c>
